--- a/福山Bコース.xlsx
+++ b/福山Bコース.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="222">
   <si>
     <t>No</t>
   </si>
@@ -519,9 +519,18 @@
     <t>8月10日(日), 8月17日(日)</t>
   </si>
   <si>
+    <t>8月11日(月)</t>
+  </si>
+  <si>
+    <t>定休日、月曜日</t>
+  </si>
+  <si>
     <t>8月18日休み</t>
   </si>
   <si>
+    <t>8月14日(木), 8月15日(金)</t>
+  </si>
+  <si>
     <t>不定休</t>
   </si>
   <si>
@@ -534,27 +543,36 @@
     <t>8月18日～20日休み</t>
   </si>
   <si>
-    <t>8月11日(月)</t>
-  </si>
-  <si>
     <t>8月18日～21日休み、月曜日、定休日</t>
   </si>
   <si>
+    <t>8月14日(木)</t>
+  </si>
+  <si>
+    <t>定休日、木曜日</t>
+  </si>
+  <si>
     <t>上記期間は全て休業</t>
   </si>
   <si>
     <t>8月18日～8月20日休み、8月15日に在庫320本、8月18日（月）回収のみ</t>
   </si>
   <si>
-    <t>定休日、月曜日</t>
-  </si>
-  <si>
     <t>8月12日(火)</t>
   </si>
   <si>
     <t>火曜日、定休日</t>
   </si>
   <si>
+    <t>8月12日(火), 8月13日(水), 8月14日(木), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>定休日、日曜日</t>
+  </si>
+  <si>
+    <t>8月15日(金), 8月17日(日)</t>
+  </si>
+  <si>
     <t>8月15日(金)</t>
   </si>
   <si>
@@ -567,6 +585,18 @@
     <t>8月13日(水)</t>
   </si>
   <si>
+    <t>8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月17日～20日まで休み、定休日、日曜日</t>
+  </si>
+  <si>
+    <t>1日平均300人</t>
+  </si>
+  <si>
+    <t>定休日なし</t>
+  </si>
+  <si>
     <t>8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
   </si>
   <si>
@@ -579,9 +609,15 @@
     <t>月曜日定休</t>
   </si>
   <si>
+    <t>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
     <t>200～250</t>
   </si>
   <si>
+    <t>8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
     <t>8月14日(木), 8月15日(金),  8月17日(日)</t>
   </si>
   <si>
@@ -594,13 +630,31 @@
     <t>8月15日(金), 8月16日(土), 8月17日(日)</t>
   </si>
   <si>
-    <t>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
+    <t>定休日、日曜、月曜日</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>いつも通りで大丈夫です</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木)</t>
   </si>
   <si>
     <t>予約があればやります</t>
   </si>
   <si>
-    <t>8月14日(木)</t>
+    <t>8月18日休み、定休日、月曜日</t>
+  </si>
+  <si>
+    <t>8月17日～21日休み</t>
+  </si>
+  <si>
+    <t>8月19日～21日休み、定休日、水曜日</t>
+  </si>
+  <si>
+    <t>8月11日(月), 8月17日(日)</t>
   </si>
   <si>
     <t>木曜日、定休日</t>
@@ -616,9 +670,6 @@
   </si>
   <si>
     <t>8月10日(日), 8月11日(月), 8月13日(水), 8月14日(木), 8月15日(金), 8月17日(日)</t>
-  </si>
-  <si>
-    <t>定休日、日曜、月曜日</t>
   </si>
   <si>
     <t>8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
@@ -643,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -669,6 +720,10 @@
       <color rgb="FF434343"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -697,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -728,15 +783,23 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -772,7 +835,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="27">
+  <tableStyles count="39">
     <tableStyle count="2" pivot="0" name="月曜日-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
@@ -806,24 +869,24 @@
       <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 4">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 5">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="全件-style 5">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 6">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 7">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 8">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="全件-style 8">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 9">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
@@ -842,8 +905,8 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 13">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 14">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
@@ -858,26 +921,74 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 17">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 18">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 19">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 20">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="全件-style 20">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 21">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style 22">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 23">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 24">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 25">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 26">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 27">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 28">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 29">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 30">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 31">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 32">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 33">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 34">
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="1" type="secondRowStripe"/>
     </tableStyle>
@@ -921,7 +1032,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C14:E14" displayName="Table_10" name="Table_10" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C12:E13" displayName="Table_10" name="Table_10" id="10">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -932,7 +1043,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C18:E18" displayName="Table_11" name="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C14:E14" displayName="Table_11" name="Table_11" id="11">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -943,7 +1054,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C26:E26" displayName="Table_12" name="Table_12" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C18:E18" displayName="Table_12" name="Table_12" id="12">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -954,7 +1065,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C32:E33" displayName="Table_13" name="Table_13" id="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C21:E21" displayName="Table_13" name="Table_13" id="13">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -965,7 +1076,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C35:E35" displayName="Table_14" name="Table_14" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C26:E26" displayName="Table_14" name="Table_14" id="14">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -976,7 +1087,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C55:E55" displayName="Table_15" name="Table_15" id="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C32:E33" displayName="Table_15" name="Table_15" id="15">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -987,7 +1098,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C56:E56" displayName="Table_16" name="Table_16" id="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C35:E36" displayName="Table_16" name="Table_16" id="16">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -998,7 +1109,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C71:E71" displayName="Table_17" name="Table_17" id="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C44:E44" displayName="Table_17" name="Table_17" id="17">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1009,7 +1120,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C75:E75" displayName="Table_18" name="Table_18" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C55:E55" displayName="Table_18" name="Table_18" id="18">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1020,7 +1131,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C83:E83" displayName="Table_19" name="Table_19" id="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C56:E56" displayName="Table_19" name="Table_19" id="19">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1042,7 +1153,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C92:E93" displayName="Table_20" name="Table_20" id="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C60:E60" displayName="Table_20" name="Table_20" id="20">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1053,17 +1164,18 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C94:D94" displayName="Table_21" name="Table_21" id="21">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C71:E71" displayName="Table_21" name="Table_21" id="21">
+  <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="全件-style 16" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C108:E109" displayName="Table_22" name="Table_22" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C75:E76" displayName="Table_22" name="Table_22" id="22">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1074,7 +1186,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C135:E135" displayName="Table_23" name="Table_23" id="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C83:E83" displayName="Table_23" name="Table_23" id="23">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1085,7 +1197,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C136:E136" displayName="Table_24" name="Table_24" id="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C87:E87" displayName="Table_24" name="Table_24" id="24">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1096,7 +1208,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C146:E147" displayName="Table_25" name="Table_25" id="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C88:E88" displayName="Table_25" name="Table_25" id="25">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1107,7 +1219,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C151:E151" displayName="Table_26" name="Table_26" id="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C92:E93" displayName="Table_26" name="Table_26" id="26">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1118,13 +1230,34 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C155:E156" displayName="Table_27" name="Table_27" id="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C94:D94" displayName="Table_27" name="Table_27" id="27">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 22" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C104:E104" displayName="Table_28" name="Table_28" id="28">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
   </tableColumns>
-  <tableStyleInfo name="全件-style 22" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="全件-style 23" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C105:E106" displayName="Table_29" name="Table_29" id="29">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 24" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1136,6 +1269,116 @@
     <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="水曜日-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C108:E109" displayName="Table_30" name="Table_30" id="30">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 25" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C117:E117" displayName="Table_31" name="Table_31" id="31">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 26" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C128:E128" displayName="Table_32" name="Table_32" id="32">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 27" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C130:E130" displayName="Table_33" name="Table_33" id="33">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 28" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C131:E131" displayName="Table_34" name="Table_34" id="34">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 29" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C135:E135" displayName="Table_35" name="Table_35" id="35">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 30" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C136:E136" displayName="Table_36" name="Table_36" id="36">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 31" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C146:E147" displayName="Table_37" name="Table_37" id="37">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 32" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C151:E151" displayName="Table_38" name="Table_38" id="38">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 33" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C155:E156" displayName="Table_39" name="Table_39" id="39">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 34" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1162,7 +1405,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:E4" displayName="Table_6" name="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:E5" displayName="Table_6" name="Table_6" id="6">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1184,7 +1427,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C11:E11" displayName="Table_8" name="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C9:E9" displayName="Table_8" name="Table_8" id="8">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1195,7 +1438,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C12:E13" displayName="Table_9" name="Table_9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C11:E11" displayName="Table_9" name="Table_9" id="9">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -1515,7 +1758,7 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>VLOOKUP($B5,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>VLOOKUP($B5,'全件'!$A:$E,4,false)</f>
@@ -1523,7 +1766,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>VLOOKUP($B5,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、月曜日</v>
       </c>
     </row>
     <row r="6">
@@ -1607,7 +1850,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月14日(木), 8月15日(金)</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,4,false)</f>
@@ -1883,7 +2126,7 @@
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月14日(木)</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,4,false)</f>
@@ -1891,7 +2134,7 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、木曜日</v>
       </c>
     </row>
     <row r="22">
@@ -2228,7 +2471,7 @@
       </c>
       <c r="D36" s="5" t="str">
         <f>VLOOKUP($B36,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月12日(火), 8月13日(水), 8月14日(木), 8月17日(日)</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>VLOOKUP($B36,'全件'!$A:$E,4,false)</f>
@@ -2236,7 +2479,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>VLOOKUP($B36,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="37">
@@ -2412,7 +2655,7 @@
       </c>
       <c r="D44" s="5" t="str">
         <f>VLOOKUP($B44,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月17日(日)</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>VLOOKUP($B44,'全件'!$A:$E,4,false)</f>
@@ -2420,7 +2663,7 @@
       </c>
       <c r="F44" s="5" t="str">
         <f>VLOOKUP($B44,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="45">
@@ -2780,7 +3023,7 @@
       </c>
       <c r="D60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月17日(日)</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,4,false)</f>
@@ -2788,7 +3031,7 @@
       </c>
       <c r="F60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>8月17日～20日まで休み、定休日、日曜日</v>
       </c>
     </row>
     <row r="61">
@@ -3041,11 +3284,11 @@
       </c>
       <c r="E10" s="5" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,4,false)</f>
-        <v/>
+        <v>1日平均300人</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日なし</v>
       </c>
     </row>
     <row r="11">
@@ -3198,7 +3441,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,4,false)</f>
@@ -3206,7 +3449,7 @@
       </c>
       <c r="F17" s="5" t="str">
         <f>VLOOKUP($B17,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="18">
@@ -3451,7 +3694,7 @@
       </c>
       <c r="D28" s="5" t="str">
         <f>VLOOKUP($B28,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>VLOOKUP($B28,'全件'!$A:$E,4,false)</f>
@@ -3459,7 +3702,7 @@
       </c>
       <c r="F28" s="5" t="str">
         <f>VLOOKUP($B28,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>不定休</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3717,7 @@
       </c>
       <c r="D29" s="5" t="str">
         <f>VLOOKUP($B29,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>VLOOKUP($B29,'全件'!$A:$E,4,false)</f>
@@ -3482,7 +3725,7 @@
       </c>
       <c r="F29" s="5" t="str">
         <f>VLOOKUP($B29,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>不定休</v>
       </c>
     </row>
     <row r="30">
@@ -3992,7 +4235,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月17日(日)</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,4,false)</f>
@@ -4000,7 +4243,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜、月曜日</v>
       </c>
     </row>
     <row r="8">
@@ -4015,15 +4258,15 @@
       </c>
       <c r="D8" s="5" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,4,false)</f>
-        <v/>
+        <v>い</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>いつも通りで大丈夫です</v>
       </c>
     </row>
     <row r="9">
@@ -4038,7 +4281,7 @@
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木)</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,4,false)</f>
@@ -4046,7 +4289,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>VLOOKUP($B9,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>不定休</v>
       </c>
     </row>
     <row r="10">
@@ -4291,7 +4534,7 @@
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,4,false)</f>
@@ -4299,7 +4542,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>8月18日休み、定休日、月曜日</v>
       </c>
     </row>
     <row r="21">
@@ -4544,7 +4787,7 @@
       </c>
       <c r="D31" s="5" t="str">
         <f>VLOOKUP($B31,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月17日(日)</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>VLOOKUP($B31,'全件'!$A:$E,4,false)</f>
@@ -4552,7 +4795,7 @@
       </c>
       <c r="F31" s="5" t="str">
         <f>VLOOKUP($B31,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>8月17日～21日休み</v>
       </c>
     </row>
     <row r="32">
@@ -4598,7 +4841,7 @@
       </c>
       <c r="F33" s="5" t="str">
         <f>VLOOKUP($B33,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>8月19日～21日休み、定休日、水曜日</v>
       </c>
     </row>
     <row r="34">
@@ -4613,7 +4856,7 @@
       </c>
       <c r="D34" s="5" t="str">
         <f>VLOOKUP($B34,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月), 8月17日(日)</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>VLOOKUP($B34,'全件'!$A:$E,4,false)</f>
@@ -4621,7 +4864,7 @@
       </c>
       <c r="F34" s="5" t="str">
         <f>VLOOKUP($B34,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、月曜日</v>
       </c>
     </row>
     <row r="35">
@@ -4911,7 +5154,7 @@
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,4,false)</f>
@@ -4919,7 +5162,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、月曜日</v>
       </c>
     </row>
     <row r="5">
@@ -5279,7 +5522,7 @@
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月14日(木)</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,4,false)</f>
@@ -5287,7 +5530,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、木曜日</v>
       </c>
     </row>
     <row r="21">
@@ -6199,7 +6442,7 @@
       </c>
       <c r="D60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月17日(日)</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,4,false)</f>
@@ -6207,7 +6450,7 @@
       </c>
       <c r="F60" s="5" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>8月17日～20日まで休み、定休日、日曜日</v>
       </c>
     </row>
     <row r="61">
@@ -6598,11 +6841,11 @@
       </c>
       <c r="E16" s="5" t="str">
         <f>VLOOKUP($B16,'全件'!$A:$E,4,false)</f>
-        <v/>
+        <v>1日平均300人</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>VLOOKUP($B16,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日なし</v>
       </c>
     </row>
     <row r="17">
@@ -6755,7 +6998,7 @@
       </c>
       <c r="D23" s="5" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,4,false)</f>
@@ -6763,7 +7006,7 @@
       </c>
       <c r="F23" s="5" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="24">
@@ -7497,6 +7740,13 @@
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
@@ -7513,12 +7763,12 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
-        <v>167</v>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -7539,6 +7789,11 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="6">
@@ -7558,12 +7813,12 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
-        <v>168</v>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -7576,9 +7831,9 @@
       <c r="C12" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -7591,7 +7846,7 @@
       <c r="C13" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14">
@@ -7601,12 +7856,12 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
-        <v>170</v>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -7639,7 +7894,7 @@
         <v>165</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -7649,12 +7904,12 @@
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
-        <v>173</v>
+      <c r="C18" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -7680,6 +7935,13 @@
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
@@ -7723,9 +7985,9 @@
       <c r="C26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
@@ -7755,7 +8017,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30">
@@ -7769,7 +8031,7 @@
         <v>165</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31">
@@ -7787,12 +8049,12 @@
       <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10" t="s">
-        <v>168</v>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -7802,12 +8064,12 @@
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13" t="s">
-        <v>176</v>
+      <c r="C33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34">
@@ -7826,11 +8088,11 @@
         <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="D35" s="15"/>
       <c r="E35" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -7840,6 +8102,13 @@
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="C36" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
@@ -7913,6 +8182,13 @@
       <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
@@ -7938,7 +8214,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48">
@@ -7965,7 +8241,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -8007,12 +8283,12 @@
       <c r="B55" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="10" t="s">
-        <v>180</v>
+      <c r="C55" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56">
@@ -8023,11 +8299,11 @@
         <v>60</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="D56" s="15"/>
       <c r="E56" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57">
@@ -8038,7 +8314,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58">
@@ -8067,6 +8343,13 @@
       <c r="B60" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C60" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="13" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
@@ -8154,6 +8437,12 @@
       <c r="C69" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="D69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3">
@@ -8163,10 +8452,10 @@
         <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71">
@@ -8176,12 +8465,12 @@
       <c r="B71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72">
@@ -8216,11 +8505,11 @@
         <v>79</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="D75" s="15"/>
       <c r="E75" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -8230,6 +8519,13 @@
       <c r="B76" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
@@ -8258,7 +8554,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
@@ -8280,7 +8576,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
@@ -8301,13 +8597,13 @@
       <c r="B83" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="12"/>
     </row>
     <row r="84">
       <c r="A84" s="3">
@@ -8324,7 +8620,7 @@
       <c r="B85" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8346,6 +8642,13 @@
       <c r="B87" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="C87" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
@@ -8354,6 +8657,13 @@
       <c r="B88" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="C88" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3">
@@ -8382,7 +8692,7 @@
         <v>95</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -8392,11 +8702,11 @@
       <c r="B92" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93">
       <c r="A93" s="3">
@@ -8408,8 +8718,8 @@
       <c r="C93" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94">
       <c r="A94" s="3">
@@ -8419,10 +8729,10 @@
         <v>98</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
@@ -8441,7 +8751,7 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
@@ -8513,6 +8823,13 @@
       <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="C104" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="14"/>
+      <c r="E104" s="13" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
@@ -8521,6 +8838,15 @@
       <c r="B105" s="7" t="s">
         <v>109</v>
       </c>
+      <c r="C105" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="3">
@@ -8529,6 +8855,13 @@
       <c r="B106" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="C106" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="3">
@@ -8545,12 +8878,12 @@
       <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="10" t="s">
-        <v>193</v>
+      <c r="C108" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="109">
@@ -8563,8 +8896,8 @@
       <c r="C109" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110">
       <c r="A110" s="3">
@@ -8650,6 +8983,13 @@
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C117" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
@@ -8708,7 +9048,7 @@
         <v>127</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124">
@@ -8750,6 +9090,13 @@
       <c r="B128" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="C128" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="6">
@@ -8766,8 +9113,12 @@
       <c r="B130" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="18" t="s">
         <v>165</v>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="131">
@@ -8777,6 +9128,13 @@
       <c r="B131" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="C131" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="3">
@@ -8810,11 +9168,11 @@
         <v>139</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D135" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="D135" s="15"/>
       <c r="E135" s="9" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136">
@@ -8825,11 +9183,11 @@
         <v>140</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D136" s="12"/>
+        <v>214</v>
+      </c>
+      <c r="D136" s="15"/>
       <c r="E136" s="9" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137">
@@ -8840,7 +9198,7 @@
         <v>141</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138">
@@ -8891,10 +9249,10 @@
         <v>147</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144">
@@ -8923,12 +9281,12 @@
       <c r="B146" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="10" t="s">
-        <v>197</v>
+      <c r="C146" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="147">
@@ -8941,8 +9299,8 @@
       <c r="C147" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D147" s="11"/>
-      <c r="E147" s="10"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148">
       <c r="A148" s="6">
@@ -8952,10 +9310,10 @@
         <v>152</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149">
@@ -8984,12 +9342,12 @@
       <c r="B151" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D151" s="11"/>
-      <c r="E151" s="10" t="s">
-        <v>200</v>
+      <c r="C151" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="152">
@@ -9008,7 +9366,7 @@
         <v>157</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154">
@@ -9029,12 +9387,12 @@
       <c r="B155" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D155" s="11"/>
-      <c r="E155" s="10" t="s">
-        <v>203</v>
+      <c r="C155" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="156">
@@ -9045,11 +9403,11 @@
         <v>160</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D156" s="12"/>
+        <v>180</v>
+      </c>
+      <c r="D156" s="15"/>
       <c r="E156" s="9" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157">
@@ -9060,7 +9418,7 @@
         <v>161</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158">
@@ -9071,10 +9429,10 @@
         <v>162</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159">
@@ -9085,10 +9443,10 @@
         <v>163</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160">
@@ -9101,19 +9459,7 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="22">
-    <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
-    <tablePart r:id="rId26"/>
-    <tablePart r:id="rId27"/>
-    <tablePart r:id="rId28"/>
-    <tablePart r:id="rId29"/>
-    <tablePart r:id="rId30"/>
-    <tablePart r:id="rId31"/>
-    <tablePart r:id="rId32"/>
-    <tablePart r:id="rId33"/>
-    <tablePart r:id="rId34"/>
-    <tablePart r:id="rId35"/>
+  <tableParts count="34">
     <tablePart r:id="rId36"/>
     <tablePart r:id="rId37"/>
     <tablePart r:id="rId38"/>
@@ -9124,6 +9470,30 @@
     <tablePart r:id="rId43"/>
     <tablePart r:id="rId44"/>
     <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId61"/>
+    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId63"/>
+    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId65"/>
+    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId69"/>
   </tableParts>
 </worksheet>
 </file>